--- a/data.public/matched_with_wf_save2.xlsx
+++ b/data.public/matched_with_wf_save2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/j_gerkema_uu_nl/Documents/Documents/0. PhD/0. Chapter_I/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://solisservices-my.sharepoint.com/personal/j_gerkema_uu_nl/Documents/Documents/0. PhD/0. Chapter_I/data.public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_8132DDC78F79A8D366075C52F37BD272EA4DA6AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED8B7008-E2A4-432F-B1E5-3F0816832FAC}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="11_8132DDC78F79A8D366075C52F37BD272EA4DA6AE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA999586-0501-4D82-82C3-B4C51FC716FC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8474,9 +8474,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8514,9 +8514,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8549,26 +8549,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8601,26 +8584,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8796,19 +8762,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F898"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.90625" customWidth="1"/>
+    <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8828,7 +8794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -8842,7 +8808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -8859,7 +8825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -8876,7 +8842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -8893,7 +8859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -8907,7 +8873,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -8921,7 +8887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -8938,7 +8904,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -8952,7 +8918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -8966,7 +8932,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -8980,7 +8946,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -8997,7 +8963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -9011,7 +8977,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -9028,7 +8994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -9042,7 +9008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -9056,7 +9022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -9070,7 +9036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -9084,7 +9050,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -9098,7 +9064,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -9112,7 +9078,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -9126,7 +9092,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -9140,7 +9106,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -9154,7 +9120,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -9168,7 +9134,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -9182,7 +9148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -9196,7 +9162,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -9210,7 +9176,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -9224,7 +9190,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -9238,7 +9204,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -9252,7 +9218,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -9266,7 +9232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -9283,7 +9249,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -9297,7 +9263,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>108</v>
       </c>
@@ -9311,7 +9277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -9325,7 +9291,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -9339,7 +9305,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -9353,7 +9319,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>120</v>
       </c>
@@ -9367,7 +9333,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -9381,7 +9347,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>126</v>
       </c>
@@ -9395,7 +9361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -9409,7 +9375,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -9426,7 +9392,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -9443,7 +9409,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>140</v>
       </c>
@@ -9457,7 +9423,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>143</v>
       </c>
@@ -9471,7 +9437,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -9485,7 +9451,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -9499,7 +9465,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>152</v>
       </c>
@@ -9516,7 +9482,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>156</v>
       </c>
@@ -9530,7 +9496,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>159</v>
       </c>
@@ -9544,7 +9510,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>162</v>
       </c>
@@ -9558,7 +9524,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>165</v>
       </c>
@@ -9572,7 +9538,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>168</v>
       </c>
@@ -9589,7 +9555,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>172</v>
       </c>
@@ -9603,7 +9569,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>175</v>
       </c>
@@ -9620,7 +9586,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -9634,7 +9600,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>182</v>
       </c>
@@ -9648,7 +9614,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>185</v>
       </c>
@@ -9662,7 +9628,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -9679,7 +9645,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>192</v>
       </c>
@@ -9693,7 +9659,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>195</v>
       </c>
@@ -9707,7 +9673,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -9724,7 +9690,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>202</v>
       </c>
@@ -9738,7 +9704,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>205</v>
       </c>
@@ -9752,7 +9718,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>208</v>
       </c>
@@ -9766,7 +9732,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>211</v>
       </c>
@@ -9780,7 +9746,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>214</v>
       </c>
@@ -9794,7 +9760,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>217</v>
       </c>
@@ -9808,7 +9774,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>220</v>
       </c>
@@ -9822,7 +9788,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>223</v>
       </c>
@@ -9839,7 +9805,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>227</v>
       </c>
@@ -9853,7 +9819,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>230</v>
       </c>
@@ -9867,7 +9833,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -9881,7 +9847,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>236</v>
       </c>
@@ -9895,7 +9861,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>239</v>
       </c>
@@ -9909,7 +9875,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>242</v>
       </c>
@@ -9923,7 +9889,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>245</v>
       </c>
@@ -9937,7 +9903,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>248</v>
       </c>
@@ -9951,7 +9917,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>251</v>
       </c>
@@ -9965,7 +9931,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>254</v>
       </c>
@@ -9979,7 +9945,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>257</v>
       </c>
@@ -9996,7 +9962,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>261</v>
       </c>
@@ -10010,7 +9976,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>264</v>
       </c>
@@ -10024,7 +9990,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>267</v>
       </c>
@@ -10038,7 +10004,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -10052,7 +10018,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>273</v>
       </c>
@@ -10069,7 +10035,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>277</v>
       </c>
@@ -10083,7 +10049,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>280</v>
       </c>
@@ -10097,7 +10063,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>283</v>
       </c>
@@ -10111,7 +10077,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>286</v>
       </c>
@@ -10125,7 +10091,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>289</v>
       </c>
@@ -10139,7 +10105,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>292</v>
       </c>
@@ -10153,7 +10119,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>295</v>
       </c>
@@ -10167,7 +10133,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>298</v>
       </c>
@@ -10181,7 +10147,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>301</v>
       </c>
@@ -10195,7 +10161,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>304</v>
       </c>
@@ -10209,7 +10175,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>307</v>
       </c>
@@ -10223,7 +10189,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>310</v>
       </c>
@@ -10237,7 +10203,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>313</v>
       </c>
@@ -10251,7 +10217,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>316</v>
       </c>
@@ -10268,7 +10234,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>320</v>
       </c>
@@ -10285,7 +10251,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>323</v>
       </c>
@@ -10302,7 +10268,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>327</v>
       </c>
@@ -10316,7 +10282,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>330</v>
       </c>
@@ -10330,7 +10296,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>333</v>
       </c>
@@ -10344,7 +10310,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>336</v>
       </c>
@@ -10358,7 +10324,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>339</v>
       </c>
@@ -10372,7 +10338,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>342</v>
       </c>
@@ -10389,7 +10355,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>345</v>
       </c>
@@ -10403,7 +10369,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>348</v>
       </c>
@@ -10420,7 +10386,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>352</v>
       </c>
@@ -10434,7 +10400,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>355</v>
       </c>
@@ -10448,7 +10414,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>358</v>
       </c>
@@ -10462,7 +10428,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>361</v>
       </c>
@@ -10476,7 +10442,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>364</v>
       </c>
@@ -10490,7 +10456,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>367</v>
       </c>
@@ -10504,7 +10470,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>370</v>
       </c>
@@ -10518,7 +10484,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>373</v>
       </c>
@@ -10532,7 +10498,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>376</v>
       </c>
@@ -10546,7 +10512,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>379</v>
       </c>
@@ -10560,7 +10526,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>382</v>
       </c>
@@ -10577,7 +10543,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>386</v>
       </c>
@@ -10594,7 +10560,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>390</v>
       </c>
@@ -10611,7 +10577,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>394</v>
       </c>
@@ -10628,7 +10594,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>398</v>
       </c>
@@ -10642,7 +10608,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>401</v>
       </c>
@@ -10656,7 +10622,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>404</v>
       </c>
@@ -10673,7 +10639,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>408</v>
       </c>
@@ -10687,7 +10653,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>411</v>
       </c>
@@ -10707,7 +10673,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>415</v>
       </c>
@@ -10721,7 +10687,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>418</v>
       </c>
@@ -10735,7 +10701,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>421</v>
       </c>
@@ -10749,7 +10715,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>424</v>
       </c>
@@ -10763,7 +10729,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>427</v>
       </c>
@@ -10777,7 +10743,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>430</v>
       </c>
@@ -10791,7 +10757,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>433</v>
       </c>
@@ -10805,7 +10771,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -10822,7 +10788,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>440</v>
       </c>
@@ -10836,7 +10802,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>443</v>
       </c>
@@ -10853,7 +10819,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>447</v>
       </c>
@@ -10867,7 +10833,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>450</v>
       </c>
@@ -10881,7 +10847,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>453</v>
       </c>
@@ -10895,7 +10861,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>453</v>
       </c>
@@ -10909,7 +10875,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>457</v>
       </c>
@@ -10923,7 +10889,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>460</v>
       </c>
@@ -10937,7 +10903,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>463</v>
       </c>
@@ -10951,7 +10917,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>466</v>
       </c>
@@ -10965,7 +10931,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>469</v>
       </c>
@@ -10979,7 +10945,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>472</v>
       </c>
@@ -10996,7 +10962,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>476</v>
       </c>
@@ -11010,7 +10976,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>479</v>
       </c>
@@ -11027,7 +10993,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>483</v>
       </c>
@@ -11041,7 +11007,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>486</v>
       </c>
@@ -11058,7 +11024,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>489</v>
       </c>
@@ -11075,7 +11041,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>492</v>
       </c>
@@ -11092,7 +11058,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>496</v>
       </c>
@@ -11106,7 +11072,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>499</v>
       </c>
@@ -11120,7 +11086,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>502</v>
       </c>
@@ -11134,7 +11100,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>505</v>
       </c>
@@ -11151,7 +11117,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>508</v>
       </c>
@@ -11165,7 +11131,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>511</v>
       </c>
@@ -11179,7 +11145,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>514</v>
       </c>
@@ -11193,7 +11159,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>517</v>
       </c>
@@ -11207,7 +11173,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>520</v>
       </c>
@@ -11221,7 +11187,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>523</v>
       </c>
@@ -11235,7 +11201,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>526</v>
       </c>
@@ -11249,7 +11215,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>529</v>
       </c>
@@ -11266,7 +11232,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>533</v>
       </c>
@@ -11280,7 +11246,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>536</v>
       </c>
@@ -11294,7 +11260,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>539</v>
       </c>
@@ -11308,7 +11274,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>542</v>
       </c>
@@ -11322,7 +11288,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>545</v>
       </c>
@@ -11336,7 +11302,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>548</v>
       </c>
@@ -11350,7 +11316,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>551</v>
       </c>
@@ -11364,7 +11330,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>554</v>
       </c>
@@ -11378,7 +11344,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>557</v>
       </c>
@@ -11392,7 +11358,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>560</v>
       </c>
@@ -11409,7 +11375,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>563</v>
       </c>
@@ -11423,7 +11389,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>566</v>
       </c>
@@ -11440,7 +11406,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>570</v>
       </c>
@@ -11460,7 +11426,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>574</v>
       </c>
@@ -11474,7 +11440,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>577</v>
       </c>
@@ -11488,7 +11454,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>580</v>
       </c>
@@ -11502,7 +11468,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>583</v>
       </c>
@@ -11522,7 +11488,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>587</v>
       </c>
@@ -11536,7 +11502,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>590</v>
       </c>
@@ -11550,7 +11516,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>593</v>
       </c>
@@ -11564,7 +11530,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>596</v>
       </c>
@@ -11578,7 +11544,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>599</v>
       </c>
@@ -11592,7 +11558,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>602</v>
       </c>
@@ -11606,7 +11572,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>605</v>
       </c>
@@ -11620,7 +11586,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>608</v>
       </c>
@@ -11634,7 +11600,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>611</v>
       </c>
@@ -11651,7 +11617,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>615</v>
       </c>
@@ -11665,7 +11631,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>618</v>
       </c>
@@ -11682,7 +11648,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>622</v>
       </c>
@@ -11696,7 +11662,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>625</v>
       </c>
@@ -11710,7 +11676,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>628</v>
       </c>
@@ -11727,7 +11693,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>631</v>
       </c>
@@ -11741,7 +11707,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>634</v>
       </c>
@@ -11755,7 +11721,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>637</v>
       </c>
@@ -11769,7 +11735,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>640</v>
       </c>
@@ -11783,7 +11749,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>643</v>
       </c>
@@ -11797,7 +11763,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>646</v>
       </c>
@@ -11811,7 +11777,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>649</v>
       </c>
@@ -11825,7 +11791,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>652</v>
       </c>
@@ -11839,7 +11805,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>655</v>
       </c>
@@ -11853,7 +11819,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>658</v>
       </c>
@@ -11867,7 +11833,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>661</v>
       </c>
@@ -11881,7 +11847,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>664</v>
       </c>
@@ -11895,7 +11861,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>667</v>
       </c>
@@ -11909,7 +11875,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>670</v>
       </c>
@@ -11923,7 +11889,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>673</v>
       </c>
@@ -11937,7 +11903,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>676</v>
       </c>
@@ -11951,7 +11917,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>679</v>
       </c>
@@ -11965,7 +11931,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>682</v>
       </c>
@@ -11979,7 +11945,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>685</v>
       </c>
@@ -11993,7 +11959,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>688</v>
       </c>
@@ -12007,7 +11973,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>691</v>
       </c>
@@ -12024,7 +11990,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>695</v>
       </c>
@@ -12041,7 +12007,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>699</v>
       </c>
@@ -12055,7 +12021,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>702</v>
       </c>
@@ -12069,7 +12035,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>705</v>
       </c>
@@ -12083,7 +12049,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>708</v>
       </c>
@@ -12097,7 +12063,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>711</v>
       </c>
@@ -12114,7 +12080,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>715</v>
       </c>
@@ -12128,7 +12094,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>718</v>
       </c>
@@ -12145,7 +12111,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>722</v>
       </c>
@@ -12162,7 +12128,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>725</v>
       </c>
@@ -12176,7 +12142,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>728</v>
       </c>
@@ -12190,7 +12156,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>731</v>
       </c>
@@ -12204,7 +12170,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>734</v>
       </c>
@@ -12218,7 +12184,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>737</v>
       </c>
@@ -12232,7 +12198,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>740</v>
       </c>
@@ -12246,7 +12212,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>743</v>
       </c>
@@ -12260,7 +12226,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>746</v>
       </c>
@@ -12274,7 +12240,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>749</v>
       </c>
@@ -12288,7 +12254,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>752</v>
       </c>
@@ -12302,7 +12268,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>755</v>
       </c>
@@ -12319,7 +12285,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>759</v>
       </c>
@@ -12333,7 +12299,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>762</v>
       </c>
@@ -12347,7 +12313,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>765</v>
       </c>
@@ -12361,7 +12327,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>768</v>
       </c>
@@ -12375,7 +12341,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>771</v>
       </c>
@@ -12389,7 +12355,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>774</v>
       </c>
@@ -12403,7 +12369,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>777</v>
       </c>
@@ -12417,7 +12383,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>780</v>
       </c>
@@ -12434,7 +12400,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>784</v>
       </c>
@@ -12448,7 +12414,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>787</v>
       </c>
@@ -12462,7 +12428,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>790</v>
       </c>
@@ -12476,7 +12442,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>793</v>
       </c>
@@ -12490,7 +12456,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>796</v>
       </c>
@@ -12504,7 +12470,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>799</v>
       </c>
@@ -12518,7 +12484,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>802</v>
       </c>
@@ -12535,7 +12501,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>806</v>
       </c>
@@ -12549,7 +12515,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>809</v>
       </c>
@@ -12566,7 +12532,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>813</v>
       </c>
@@ -12583,7 +12549,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>817</v>
       </c>
@@ -12597,7 +12563,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>820</v>
       </c>
@@ -12611,7 +12577,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>823</v>
       </c>
@@ -12625,7 +12591,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>826</v>
       </c>
@@ -12639,7 +12605,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>829</v>
       </c>
@@ -12653,7 +12619,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>832</v>
       </c>
@@ -12670,7 +12636,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>836</v>
       </c>
@@ -12684,7 +12650,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>839</v>
       </c>
@@ -12698,7 +12664,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>842</v>
       </c>
@@ -12712,7 +12678,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>845</v>
       </c>
@@ -12726,7 +12692,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>848</v>
       </c>
@@ -12740,7 +12706,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>851</v>
       </c>
@@ -12754,7 +12720,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>854</v>
       </c>
@@ -12768,7 +12734,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>857</v>
       </c>
@@ -12782,7 +12748,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>860</v>
       </c>
@@ -12799,7 +12765,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>864</v>
       </c>
@@ -12813,7 +12779,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>867</v>
       </c>
@@ -12827,7 +12793,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>870</v>
       </c>
@@ -12841,7 +12807,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>873</v>
       </c>
@@ -12855,7 +12821,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>876</v>
       </c>
@@ -12869,7 +12835,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>870</v>
       </c>
@@ -12886,7 +12852,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>881</v>
       </c>
@@ -12900,7 +12866,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>870</v>
       </c>
@@ -12914,7 +12880,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>873</v>
       </c>
@@ -12928,7 +12894,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>876</v>
       </c>
@@ -12942,7 +12908,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>887</v>
       </c>
@@ -12956,7 +12922,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>890</v>
       </c>
@@ -12970,7 +12936,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>893</v>
       </c>
@@ -12984,7 +12950,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>896</v>
       </c>
@@ -12998,7 +12964,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>899</v>
       </c>
@@ -13012,7 +12978,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>902</v>
       </c>
@@ -13026,7 +12992,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>905</v>
       </c>
@@ -13040,7 +13006,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>908</v>
       </c>
@@ -13054,7 +13020,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>911</v>
       </c>
@@ -13068,7 +13034,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>914</v>
       </c>
@@ -13082,7 +13048,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>917</v>
       </c>
@@ -13096,7 +13062,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>920</v>
       </c>
@@ -13110,7 +13076,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>923</v>
       </c>
@@ -13124,7 +13090,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>926</v>
       </c>
@@ -13141,7 +13107,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>930</v>
       </c>
@@ -13155,7 +13121,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>933</v>
       </c>
@@ -13172,7 +13138,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>937</v>
       </c>
@@ -13186,7 +13152,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>940</v>
       </c>
@@ -13200,7 +13166,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>943</v>
       </c>
@@ -13214,7 +13180,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>946</v>
       </c>
@@ -13228,7 +13194,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>949</v>
       </c>
@@ -13242,7 +13208,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>952</v>
       </c>
@@ -13256,7 +13222,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>955</v>
       </c>
@@ -13270,7 +13236,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>958</v>
       </c>
@@ -13284,7 +13250,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>961</v>
       </c>
@@ -13298,7 +13264,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>964</v>
       </c>
@@ -13312,7 +13278,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>967</v>
       </c>
@@ -13326,7 +13292,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>970</v>
       </c>
@@ -13340,7 +13306,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>973</v>
       </c>
@@ -13354,7 +13320,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>976</v>
       </c>
@@ -13368,7 +13334,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>979</v>
       </c>
@@ -13382,7 +13348,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>982</v>
       </c>
@@ -13396,7 +13362,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>985</v>
       </c>
@@ -13410,7 +13376,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>988</v>
       </c>
@@ -13424,7 +13390,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>991</v>
       </c>
@@ -13438,7 +13404,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>994</v>
       </c>
@@ -13452,7 +13418,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>997</v>
       </c>
@@ -13466,7 +13432,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>1000</v>
       </c>
@@ -13480,7 +13446,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>1003</v>
       </c>
@@ -13494,7 +13460,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>1006</v>
       </c>
@@ -13508,7 +13474,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>1009</v>
       </c>
@@ -13525,7 +13491,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>1013</v>
       </c>
@@ -13542,7 +13508,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>1017</v>
       </c>
@@ -13556,7 +13522,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>1020</v>
       </c>
@@ -13570,7 +13536,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>1023</v>
       </c>
@@ -13584,7 +13550,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>1026</v>
       </c>
@@ -13598,7 +13564,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>1029</v>
       </c>
@@ -13612,7 +13578,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>1032</v>
       </c>
@@ -13626,7 +13592,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>1013</v>
       </c>
@@ -13643,7 +13609,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>1037</v>
       </c>
@@ -13660,7 +13626,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>1041</v>
       </c>
@@ -13674,7 +13640,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>1044</v>
       </c>
@@ -13688,7 +13654,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>1047</v>
       </c>
@@ -13702,7 +13668,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>1050</v>
       </c>
@@ -13716,7 +13682,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>1053</v>
       </c>
@@ -13730,7 +13696,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>1056</v>
       </c>
@@ -13747,7 +13713,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>1056</v>
       </c>
@@ -13764,7 +13730,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>1062</v>
       </c>
@@ -13778,7 +13744,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>1065</v>
       </c>
@@ -13792,7 +13758,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>1068</v>
       </c>
@@ -13806,7 +13772,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>1071</v>
       </c>
@@ -13820,7 +13786,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>1074</v>
       </c>
@@ -13834,7 +13800,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>1077</v>
       </c>
@@ -13848,7 +13814,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>1080</v>
       </c>
@@ -13862,7 +13828,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>1083</v>
       </c>
@@ -13876,7 +13842,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>1086</v>
       </c>
@@ -13890,7 +13856,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>1089</v>
       </c>
@@ -13904,7 +13870,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>1092</v>
       </c>
@@ -13918,7 +13884,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>1095</v>
       </c>
@@ -13932,7 +13898,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>1098</v>
       </c>
@@ -13946,7 +13912,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>1101</v>
       </c>
@@ -13960,7 +13926,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>1104</v>
       </c>
@@ -13974,7 +13940,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>1107</v>
       </c>
@@ -13988,7 +13954,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>1110</v>
       </c>
@@ -14002,7 +13968,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>1113</v>
       </c>
@@ -14016,7 +13982,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>1116</v>
       </c>
@@ -14030,7 +13996,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>1119</v>
       </c>
@@ -14047,7 +14013,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>1123</v>
       </c>
@@ -14061,7 +14027,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>1126</v>
       </c>
@@ -14075,7 +14041,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>1129</v>
       </c>
@@ -14089,7 +14055,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1132</v>
       </c>
@@ -14103,7 +14069,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1135</v>
       </c>
@@ -14117,7 +14083,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1138</v>
       </c>
@@ -14131,7 +14097,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1141</v>
       </c>
@@ -14145,7 +14111,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1144</v>
       </c>
@@ -14159,7 +14125,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1147</v>
       </c>
@@ -14173,7 +14139,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1150</v>
       </c>
@@ -14187,7 +14153,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1153</v>
       </c>
@@ -14201,7 +14167,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1156</v>
       </c>
@@ -14215,7 +14181,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1159</v>
       </c>
@@ -14229,7 +14195,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1162</v>
       </c>
@@ -14243,7 +14209,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1165</v>
       </c>
@@ -14257,7 +14223,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1168</v>
       </c>
@@ -14271,7 +14237,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1171</v>
       </c>
@@ -14285,7 +14251,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1174</v>
       </c>
@@ -14299,7 +14265,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1177</v>
       </c>
@@ -14313,7 +14279,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1180</v>
       </c>
@@ -14327,7 +14293,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1183</v>
       </c>
@@ -14344,7 +14310,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1183</v>
       </c>
@@ -14361,7 +14327,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1189</v>
       </c>
@@ -14375,7 +14341,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1192</v>
       </c>
@@ -14389,7 +14355,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1195</v>
       </c>
@@ -14403,7 +14369,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1198</v>
       </c>
@@ -14417,7 +14383,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1201</v>
       </c>
@@ -14431,7 +14397,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1204</v>
       </c>
@@ -14445,7 +14411,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1207</v>
       </c>
@@ -14459,7 +14425,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1210</v>
       </c>
@@ -14473,7 +14439,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1213</v>
       </c>
@@ -14487,7 +14453,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1216</v>
       </c>
@@ -14504,7 +14470,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1220</v>
       </c>
@@ -14518,7 +14484,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1223</v>
       </c>
@@ -14532,7 +14498,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1226</v>
       </c>
@@ -14546,7 +14512,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1229</v>
       </c>
@@ -14566,7 +14532,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1233</v>
       </c>
@@ -14583,7 +14549,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1237</v>
       </c>
@@ -14597,7 +14563,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1240</v>
       </c>
@@ -14611,7 +14577,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1243</v>
       </c>
@@ -14625,7 +14591,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1246</v>
       </c>
@@ -14639,7 +14605,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1249</v>
       </c>
@@ -14656,7 +14622,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1253</v>
       </c>
@@ -14670,7 +14636,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1256</v>
       </c>
@@ -14684,7 +14650,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1259</v>
       </c>
@@ -14698,7 +14664,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1262</v>
       </c>
@@ -14712,7 +14678,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1265</v>
       </c>
@@ -14729,7 +14695,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1269</v>
       </c>
@@ -14743,7 +14709,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1272</v>
       </c>
@@ -14757,7 +14723,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1275</v>
       </c>
@@ -14771,7 +14737,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1278</v>
       </c>
@@ -14785,7 +14751,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1281</v>
       </c>
@@ -14799,7 +14765,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1246</v>
       </c>
@@ -14813,7 +14779,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1285</v>
       </c>
@@ -14830,7 +14796,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1289</v>
       </c>
@@ -14847,7 +14813,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1293</v>
       </c>
@@ -14861,7 +14827,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1296</v>
       </c>
@@ -14875,7 +14841,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1299</v>
       </c>
@@ -14892,7 +14858,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1303</v>
       </c>
@@ -14906,7 +14872,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1306</v>
       </c>
@@ -14920,7 +14886,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1309</v>
       </c>
@@ -14934,7 +14900,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1312</v>
       </c>
@@ -14948,7 +14914,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1315</v>
       </c>
@@ -14965,7 +14931,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1319</v>
       </c>
@@ -14979,7 +14945,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1322</v>
       </c>
@@ -14993,7 +14959,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1325</v>
       </c>
@@ -15007,7 +14973,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1328</v>
       </c>
@@ -15021,7 +14987,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1331</v>
       </c>
@@ -15035,7 +15001,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1334</v>
       </c>
@@ -15049,7 +15015,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1337</v>
       </c>
@@ -15063,7 +15029,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1340</v>
       </c>
@@ -15077,7 +15043,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1343</v>
       </c>
@@ -15091,7 +15057,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1346</v>
       </c>
@@ -15105,7 +15071,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1349</v>
       </c>
@@ -15119,7 +15085,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1352</v>
       </c>
@@ -15133,7 +15099,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1355</v>
       </c>
@@ -15147,7 +15113,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1358</v>
       </c>
@@ -15164,7 +15130,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1362</v>
       </c>
@@ -15178,7 +15144,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1365</v>
       </c>
@@ -15192,7 +15158,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1368</v>
       </c>
@@ -15206,7 +15172,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1371</v>
       </c>
@@ -15223,7 +15189,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1375</v>
       </c>
@@ -15237,7 +15203,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1378</v>
       </c>
@@ -15251,7 +15217,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1381</v>
       </c>
@@ -15265,7 +15231,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1384</v>
       </c>
@@ -15279,7 +15245,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1387</v>
       </c>
@@ -15293,7 +15259,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1390</v>
       </c>
@@ -15307,7 +15273,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1393</v>
       </c>
@@ -15321,7 +15287,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1396</v>
       </c>
@@ -15335,7 +15301,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1259</v>
       </c>
@@ -15352,7 +15318,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1401</v>
       </c>
@@ -15366,7 +15332,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1404</v>
       </c>
@@ -15380,7 +15346,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1407</v>
       </c>
@@ -15394,7 +15360,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1410</v>
       </c>
@@ -15408,7 +15374,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1413</v>
       </c>
@@ -15422,7 +15388,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1416</v>
       </c>
@@ -15436,7 +15402,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1419</v>
       </c>
@@ -15450,7 +15416,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1422</v>
       </c>
@@ -15464,7 +15430,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1425</v>
       </c>
@@ -15478,7 +15444,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1428</v>
       </c>
@@ -15492,7 +15458,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1431</v>
       </c>
@@ -15512,7 +15478,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1435</v>
       </c>
@@ -15526,7 +15492,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1438</v>
       </c>
@@ -15540,7 +15506,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1441</v>
       </c>
@@ -15554,7 +15520,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1444</v>
       </c>
@@ -15568,7 +15534,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1447</v>
       </c>
@@ -15582,7 +15548,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1450</v>
       </c>
@@ -15596,7 +15562,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1453</v>
       </c>
@@ -15610,7 +15576,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1456</v>
       </c>
@@ -15624,7 +15590,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1459</v>
       </c>
@@ -15638,7 +15604,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1462</v>
       </c>
@@ -15655,7 +15621,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1466</v>
       </c>
@@ -15669,7 +15635,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1469</v>
       </c>
@@ -15683,7 +15649,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1472</v>
       </c>
@@ -15697,7 +15663,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1475</v>
       </c>
@@ -15711,7 +15677,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1478</v>
       </c>
@@ -15725,7 +15691,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1481</v>
       </c>
@@ -15739,7 +15705,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1484</v>
       </c>
@@ -15753,7 +15719,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1487</v>
       </c>
@@ -15767,7 +15733,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1490</v>
       </c>
@@ -15781,7 +15747,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1493</v>
       </c>
@@ -15801,7 +15767,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1497</v>
       </c>
@@ -15815,7 +15781,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1500</v>
       </c>
@@ -15829,7 +15795,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1503</v>
       </c>
@@ -15846,7 +15812,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1507</v>
       </c>
@@ -15860,7 +15826,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1510</v>
       </c>
@@ -15874,7 +15840,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1513</v>
       </c>
@@ -15888,7 +15854,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1516</v>
       </c>
@@ -15902,7 +15868,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1519</v>
       </c>
@@ -15916,7 +15882,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1522</v>
       </c>
@@ -15930,7 +15896,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1525</v>
       </c>
@@ -15947,7 +15913,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1529</v>
       </c>
@@ -15961,7 +15927,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1532</v>
       </c>
@@ -15975,7 +15941,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1535</v>
       </c>
@@ -15992,7 +15958,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1539</v>
       </c>
@@ -16009,7 +15975,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1543</v>
       </c>
@@ -16023,7 +15989,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1546</v>
       </c>
@@ -16037,7 +16003,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1549</v>
       </c>
@@ -16051,7 +16017,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1552</v>
       </c>
@@ -16065,7 +16031,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1555</v>
       </c>
@@ -16079,7 +16045,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1558</v>
       </c>
@@ -16093,7 +16059,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1561</v>
       </c>
@@ -16107,7 +16073,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1564</v>
       </c>
@@ -16121,7 +16087,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1567</v>
       </c>
@@ -16135,7 +16101,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1570</v>
       </c>
@@ -16152,7 +16118,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1574</v>
       </c>
@@ -16166,7 +16132,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1577</v>
       </c>
@@ -16180,7 +16146,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1580</v>
       </c>
@@ -16194,7 +16160,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1583</v>
       </c>
@@ -16208,7 +16174,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1586</v>
       </c>
@@ -16222,7 +16188,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1589</v>
       </c>
@@ -16236,7 +16202,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1592</v>
       </c>
@@ -16250,7 +16216,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1595</v>
       </c>
@@ -16267,7 +16233,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1599</v>
       </c>
@@ -16281,7 +16247,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1602</v>
       </c>
@@ -16295,7 +16261,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1605</v>
       </c>
@@ -16309,7 +16275,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1608</v>
       </c>
@@ -16323,7 +16289,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1611</v>
       </c>
@@ -16337,7 +16303,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1614</v>
       </c>
@@ -16351,7 +16317,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1617</v>
       </c>
@@ -16365,7 +16331,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1620</v>
       </c>
@@ -16379,7 +16345,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1623</v>
       </c>
@@ -16393,7 +16359,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1626</v>
       </c>
@@ -16407,7 +16373,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1629</v>
       </c>
@@ -16421,7 +16387,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1632</v>
       </c>
@@ -16435,7 +16401,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1635</v>
       </c>
@@ -16449,7 +16415,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1638</v>
       </c>
@@ -16463,7 +16429,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1638</v>
       </c>
@@ -16477,7 +16443,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1642</v>
       </c>
@@ -16491,7 +16457,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1645</v>
       </c>
@@ -16505,7 +16471,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1648</v>
       </c>
@@ -16519,7 +16485,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1651</v>
       </c>
@@ -16533,7 +16499,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1654</v>
       </c>
@@ -16547,7 +16513,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1657</v>
       </c>
@@ -16561,7 +16527,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1660</v>
       </c>
@@ -16575,7 +16541,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1663</v>
       </c>
@@ -16589,7 +16555,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1666</v>
       </c>
@@ -16603,7 +16569,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1669</v>
       </c>
@@ -16617,7 +16583,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1672</v>
       </c>
@@ -16631,7 +16597,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1675</v>
       </c>
@@ -16645,7 +16611,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>1678</v>
       </c>
@@ -16659,7 +16625,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>1681</v>
       </c>
@@ -16673,7 +16639,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>1684</v>
       </c>
@@ -16690,7 +16656,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>1688</v>
       </c>
@@ -16707,7 +16673,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>1692</v>
       </c>
@@ -16724,7 +16690,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>1696</v>
       </c>
@@ -16741,7 +16707,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>1700</v>
       </c>
@@ -16758,7 +16724,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>1703</v>
       </c>
@@ -16775,7 +16741,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>1707</v>
       </c>
@@ -16789,7 +16755,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>1710</v>
       </c>
@@ -16803,7 +16769,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>1713</v>
       </c>
@@ -16820,7 +16786,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>1717</v>
       </c>
@@ -16834,7 +16800,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>1720</v>
       </c>
@@ -16848,7 +16814,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>1723</v>
       </c>
@@ -16862,7 +16828,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>1726</v>
       </c>
@@ -16876,7 +16842,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>1525</v>
       </c>
@@ -16890,7 +16856,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>1730</v>
       </c>
@@ -16904,7 +16870,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>1720</v>
       </c>
@@ -16921,7 +16887,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>1735</v>
       </c>
@@ -16935,7 +16901,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>1738</v>
       </c>
@@ -16949,7 +16915,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>1741</v>
       </c>
@@ -16963,7 +16929,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>1744</v>
       </c>
@@ -16977,7 +16943,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>1747</v>
       </c>
@@ -16991,7 +16957,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>1750</v>
       </c>
@@ -17008,7 +16974,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>1754</v>
       </c>
@@ -17022,7 +16988,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>1757</v>
       </c>
@@ -17039,7 +17005,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>1761</v>
       </c>
@@ -17056,7 +17022,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>1765</v>
       </c>
@@ -17070,7 +17036,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>1765</v>
       </c>
@@ -17084,7 +17050,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>1769</v>
       </c>
@@ -17098,7 +17064,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>1772</v>
       </c>
@@ -17112,7 +17078,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>1775</v>
       </c>
@@ -17126,7 +17092,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>1778</v>
       </c>
@@ -17140,7 +17106,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>1778</v>
       </c>
@@ -17154,7 +17120,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>1782</v>
       </c>
@@ -17168,7 +17134,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>1785</v>
       </c>
@@ -17182,7 +17148,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>1788</v>
       </c>
@@ -17196,7 +17162,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>1791</v>
       </c>
@@ -17210,7 +17176,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>1794</v>
       </c>
@@ -17224,7 +17190,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>1797</v>
       </c>
@@ -17238,7 +17204,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>1800</v>
       </c>
@@ -17252,7 +17218,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>1803</v>
       </c>
@@ -17266,7 +17232,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>1806</v>
       </c>
@@ -17280,7 +17246,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>1809</v>
       </c>
@@ -17294,7 +17260,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>1812</v>
       </c>
@@ -17308,7 +17274,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>1815</v>
       </c>
@@ -17322,7 +17288,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>1818</v>
       </c>
@@ -17336,7 +17302,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>1821</v>
       </c>
@@ -17350,7 +17316,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>1824</v>
       </c>
@@ -17364,7 +17330,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>1827</v>
       </c>
@@ -17378,7 +17344,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>1830</v>
       </c>
@@ -17392,7 +17358,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>1833</v>
       </c>
@@ -17406,7 +17372,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>1836</v>
       </c>
@@ -17420,7 +17386,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>1839</v>
       </c>
@@ -17434,7 +17400,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>1842</v>
       </c>
@@ -17451,7 +17417,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>1846</v>
       </c>
@@ -17465,7 +17431,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>1849</v>
       </c>
@@ -17479,7 +17445,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>1852</v>
       </c>
@@ -17496,7 +17462,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>1856</v>
       </c>
@@ -17510,7 +17476,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>1859</v>
       </c>
@@ -17524,7 +17490,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>1862</v>
       </c>
@@ -17538,7 +17504,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>1865</v>
       </c>
@@ -17552,7 +17518,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>1868</v>
       </c>
@@ -17566,7 +17532,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>1871</v>
       </c>
@@ -17580,7 +17546,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>1874</v>
       </c>
@@ -17594,7 +17560,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>1877</v>
       </c>
@@ -17608,7 +17574,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>1880</v>
       </c>
@@ -17622,7 +17588,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>1883</v>
       </c>
@@ -17636,7 +17602,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>1886</v>
       </c>
@@ -17650,7 +17616,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>1889</v>
       </c>
@@ -17664,7 +17630,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>1892</v>
       </c>
@@ -17681,7 +17647,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>1896</v>
       </c>
@@ -17695,7 +17661,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>1899</v>
       </c>
@@ -17709,7 +17675,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>1902</v>
       </c>
@@ -17723,7 +17689,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>1905</v>
       </c>
@@ -17737,7 +17703,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>1908</v>
       </c>
@@ -17751,7 +17717,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>1911</v>
       </c>
@@ -17765,7 +17731,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>1914</v>
       </c>
@@ -17779,7 +17745,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>1917</v>
       </c>
@@ -17793,7 +17759,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>1920</v>
       </c>
@@ -17807,7 +17773,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>1923</v>
       </c>
@@ -17821,7 +17787,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>1926</v>
       </c>
@@ -17835,7 +17801,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>1929</v>
       </c>
@@ -17852,7 +17818,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>1932</v>
       </c>
@@ -17866,7 +17832,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>1935</v>
       </c>
@@ -17880,7 +17846,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1938</v>
       </c>
@@ -17894,7 +17860,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1941</v>
       </c>
@@ -17911,7 +17877,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1945</v>
       </c>
@@ -17925,7 +17891,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1948</v>
       </c>
@@ -17939,7 +17905,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1951</v>
       </c>
@@ -17956,7 +17922,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1954</v>
       </c>
@@ -17970,7 +17936,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1957</v>
       </c>
@@ -17987,7 +17953,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1961</v>
       </c>
@@ -18001,7 +17967,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1964</v>
       </c>
@@ -18015,7 +17981,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1967</v>
       </c>
@@ -18029,7 +17995,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1970</v>
       </c>
@@ -18043,7 +18009,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1973</v>
       </c>
@@ -18060,7 +18026,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1977</v>
       </c>
@@ -18074,7 +18040,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1980</v>
       </c>
@@ -18088,7 +18054,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1983</v>
       </c>
@@ -18102,7 +18068,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1986</v>
       </c>
@@ -18116,7 +18082,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1989</v>
       </c>
@@ -18130,7 +18096,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1989</v>
       </c>
@@ -18144,7 +18110,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1993</v>
       </c>
@@ -18158,7 +18124,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1996</v>
       </c>
@@ -18172,7 +18138,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1999</v>
       </c>
@@ -18186,7 +18152,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>2002</v>
       </c>
@@ -18200,7 +18166,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>2005</v>
       </c>
@@ -18214,7 +18180,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>2008</v>
       </c>
@@ -18228,7 +18194,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>2011</v>
       </c>
@@ -18242,7 +18208,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>2014</v>
       </c>
@@ -18256,7 +18222,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>2017</v>
       </c>
@@ -18270,7 +18236,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>2020</v>
       </c>
@@ -18284,7 +18250,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>2023</v>
       </c>
@@ -18298,7 +18264,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>2026</v>
       </c>
@@ -18315,7 +18281,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>2030</v>
       </c>
@@ -18329,7 +18295,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>2033</v>
       </c>
@@ -18346,7 +18312,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>2037</v>
       </c>
@@ -18360,7 +18326,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>2040</v>
       </c>
@@ -18374,7 +18340,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>2043</v>
       </c>
@@ -18388,7 +18354,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>2046</v>
       </c>
@@ -18402,7 +18368,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>2049</v>
       </c>
@@ -18416,7 +18382,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>2052</v>
       </c>
@@ -18430,7 +18396,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>2055</v>
       </c>
@@ -18444,7 +18410,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>2058</v>
       </c>
@@ -18458,7 +18424,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>2061</v>
       </c>
@@ -18472,7 +18438,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>2064</v>
       </c>
@@ -18486,7 +18452,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>2067</v>
       </c>
@@ -18500,7 +18466,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>2070</v>
       </c>
@@ -18514,7 +18480,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>2073</v>
       </c>
@@ -18528,7 +18494,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>2076</v>
       </c>
@@ -18542,7 +18508,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>2079</v>
       </c>
@@ -18556,7 +18522,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>2082</v>
       </c>
@@ -18570,7 +18536,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>2085</v>
       </c>
@@ -18584,7 +18550,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>2088</v>
       </c>
@@ -18598,7 +18564,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>2091</v>
       </c>
@@ -18612,7 +18578,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>2094</v>
       </c>
@@ -18629,7 +18595,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>2098</v>
       </c>
@@ -18643,7 +18609,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>2101</v>
       </c>
@@ -18657,7 +18623,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>2104</v>
       </c>
@@ -18671,7 +18637,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>2107</v>
       </c>
@@ -18685,7 +18651,7 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>2110</v>
       </c>
@@ -18699,7 +18665,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>2113</v>
       </c>
@@ -18713,7 +18679,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>2116</v>
       </c>
@@ -18727,7 +18693,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>2119</v>
       </c>
@@ -18741,7 +18707,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>2122</v>
       </c>
@@ -18755,7 +18721,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>2125</v>
       </c>
@@ -18769,7 +18735,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>2128</v>
       </c>
@@ -18783,7 +18749,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>2131</v>
       </c>
@@ -18797,7 +18763,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>2134</v>
       </c>
@@ -18811,7 +18777,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>2137</v>
       </c>
@@ -18828,7 +18794,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>2141</v>
       </c>
@@ -18842,7 +18808,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>2144</v>
       </c>
@@ -18856,7 +18822,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>2147</v>
       </c>
@@ -18870,7 +18836,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>2150</v>
       </c>
@@ -18887,7 +18853,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>2154</v>
       </c>
@@ -18901,7 +18867,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>2157</v>
       </c>
@@ -18915,7 +18881,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>2160</v>
       </c>
@@ -18929,7 +18895,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>2163</v>
       </c>
@@ -18943,7 +18909,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>2166</v>
       </c>
@@ -18957,7 +18923,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>2169</v>
       </c>
@@ -18971,7 +18937,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>2172</v>
       </c>
@@ -18985,7 +18951,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>2175</v>
       </c>
@@ -18999,7 +18965,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>2178</v>
       </c>
@@ -19013,7 +18979,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>2181</v>
       </c>
@@ -19027,7 +18993,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>2184</v>
       </c>
@@ -19041,7 +19007,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>2187</v>
       </c>
@@ -19055,7 +19021,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>2190</v>
       </c>
@@ -19072,7 +19038,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>2194</v>
       </c>
@@ -19089,7 +19055,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>2198</v>
       </c>
@@ -19103,7 +19069,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>2201</v>
       </c>
@@ -19117,7 +19083,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>2204</v>
       </c>
@@ -19131,7 +19097,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>2207</v>
       </c>
@@ -19145,7 +19111,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>2210</v>
       </c>
@@ -19162,7 +19128,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>2214</v>
       </c>
@@ -19179,7 +19145,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>2218</v>
       </c>
@@ -19193,7 +19159,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>2221</v>
       </c>
@@ -19207,7 +19173,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>2224</v>
       </c>
@@ -19221,7 +19187,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>2227</v>
       </c>
@@ -19235,7 +19201,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>2230</v>
       </c>
@@ -19249,7 +19215,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>2233</v>
       </c>
@@ -19263,7 +19229,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>2236</v>
       </c>
@@ -19277,7 +19243,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>2239</v>
       </c>
@@ -19291,7 +19257,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>2242</v>
       </c>
@@ -19305,7 +19271,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>2245</v>
       </c>
@@ -19319,7 +19285,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>2248</v>
       </c>
@@ -19333,7 +19299,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>2251</v>
       </c>
@@ -19347,7 +19313,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>2254</v>
       </c>
@@ -19361,7 +19327,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>2257</v>
       </c>
@@ -19375,7 +19341,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>2260</v>
       </c>
@@ -19389,7 +19355,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>2263</v>
       </c>
@@ -19403,7 +19369,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>2266</v>
       </c>
@@ -19417,7 +19383,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>2269</v>
       </c>
@@ -19434,7 +19400,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>2273</v>
       </c>
@@ -19448,7 +19414,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>2276</v>
       </c>
@@ -19462,7 +19428,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>2279</v>
       </c>
@@ -19476,7 +19442,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>2282</v>
       </c>
@@ -19490,7 +19456,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>2285</v>
       </c>
@@ -19507,7 +19473,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>2289</v>
       </c>
@@ -19521,7 +19487,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>2292</v>
       </c>
@@ -19535,7 +19501,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>2295</v>
       </c>
@@ -19549,7 +19515,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>2298</v>
       </c>
@@ -19563,7 +19529,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>2301</v>
       </c>
@@ -19577,7 +19543,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>2304</v>
       </c>
@@ -19594,7 +19560,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>2308</v>
       </c>
@@ -19611,7 +19577,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>2312</v>
       </c>
@@ -19625,7 +19591,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>2315</v>
       </c>
@@ -19639,7 +19605,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>2318</v>
       </c>
@@ -19653,7 +19619,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>2321</v>
       </c>
@@ -19667,7 +19633,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>2324</v>
       </c>
@@ -19684,7 +19650,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>2328</v>
       </c>
@@ -19698,7 +19664,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>2331</v>
       </c>
@@ -19712,7 +19678,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>2334</v>
       </c>
@@ -19726,7 +19692,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="753" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>2337</v>
       </c>
@@ -19740,7 +19706,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="754" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>2340</v>
       </c>
@@ -19757,7 +19723,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="755" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>2344</v>
       </c>
@@ -19771,7 +19737,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="756" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>2347</v>
       </c>
@@ -19785,7 +19751,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="757" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>2350</v>
       </c>
@@ -19802,7 +19768,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="758" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>2354</v>
       </c>
@@ -19816,7 +19782,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="759" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>2357</v>
       </c>
@@ -19830,7 +19796,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="760" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>2360</v>
       </c>
@@ -19844,7 +19810,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="761" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>2363</v>
       </c>
@@ -19858,7 +19824,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="762" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>2366</v>
       </c>
@@ -19872,7 +19838,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="763" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>2369</v>
       </c>
@@ -19886,7 +19852,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="764" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>2372</v>
       </c>
@@ -19900,7 +19866,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="765" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>2375</v>
       </c>
@@ -19917,7 +19883,7 @@
         <v>2378</v>
       </c>
     </row>
-    <row r="766" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>2379</v>
       </c>
@@ -19934,7 +19900,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="767" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>2383</v>
       </c>
@@ -19948,7 +19914,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="768" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>2386</v>
       </c>
@@ -19962,7 +19928,7 @@
         <v>2388</v>
       </c>
     </row>
-    <row r="769" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>2389</v>
       </c>
@@ -19976,7 +19942,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="770" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>2392</v>
       </c>
@@ -19990,7 +19956,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="771" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>2395</v>
       </c>
@@ -20004,7 +19970,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="772" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>2398</v>
       </c>
@@ -20018,7 +19984,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="773" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>2401</v>
       </c>
@@ -20035,7 +20001,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="774" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>2405</v>
       </c>
@@ -20049,7 +20015,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="775" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>2408</v>
       </c>
@@ -20063,7 +20029,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="776" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>2411</v>
       </c>
@@ -20077,7 +20043,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="777" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>2414</v>
       </c>
@@ -20091,7 +20057,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="778" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>2417</v>
       </c>
@@ -20105,7 +20071,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="779" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>2420</v>
       </c>
@@ -20119,7 +20085,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="780" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>2423</v>
       </c>
@@ -20133,7 +20099,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="781" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>2426</v>
       </c>
@@ -20147,7 +20113,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="782" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>2429</v>
       </c>
@@ -20161,7 +20127,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="783" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>2432</v>
       </c>
@@ -20178,7 +20144,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="784" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>2436</v>
       </c>
@@ -20192,7 +20158,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>2439</v>
       </c>
@@ -20206,7 +20172,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>2442</v>
       </c>
@@ -20220,7 +20186,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>2445</v>
       </c>
@@ -20234,7 +20200,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>2448</v>
       </c>
@@ -20251,7 +20217,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>2452</v>
       </c>
@@ -20265,7 +20231,7 @@
         <v>2454</v>
       </c>
     </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>2455</v>
       </c>
@@ -20279,7 +20245,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>2458</v>
       </c>
@@ -20293,7 +20259,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>2461</v>
       </c>
@@ -20307,7 +20273,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>2464</v>
       </c>
@@ -20321,7 +20287,7 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>2467</v>
       </c>
@@ -20335,7 +20301,7 @@
         <v>2469</v>
       </c>
     </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>2470</v>
       </c>
@@ -20349,7 +20315,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>2473</v>
       </c>
@@ -20363,7 +20329,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>2476</v>
       </c>
@@ -20377,7 +20343,7 @@
         <v>2478</v>
       </c>
     </row>
-    <row r="798" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>2479</v>
       </c>
@@ -20391,7 +20357,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="799" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>2482</v>
       </c>
@@ -20405,7 +20371,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>2485</v>
       </c>
@@ -20419,7 +20385,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>2488</v>
       </c>
@@ -20433,7 +20399,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="802" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>2491</v>
       </c>
@@ -20447,7 +20413,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="803" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>2494</v>
       </c>
@@ -20461,7 +20427,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="804" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>2497</v>
       </c>
@@ -20475,7 +20441,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="805" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>2500</v>
       </c>
@@ -20489,7 +20455,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="806" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>2503</v>
       </c>
@@ -20503,7 +20469,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="807" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>2506</v>
       </c>
@@ -20517,7 +20483,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="808" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>2509</v>
       </c>
@@ -20531,7 +20497,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="809" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>2512</v>
       </c>
@@ -20545,7 +20511,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="810" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>2515</v>
       </c>
@@ -20559,7 +20525,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="811" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>2518</v>
       </c>
@@ -20576,7 +20542,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="812" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>2522</v>
       </c>
@@ -20593,7 +20559,7 @@
         <v>2525</v>
       </c>
     </row>
-    <row r="813" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>2526</v>
       </c>
@@ -20607,7 +20573,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="814" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>2529</v>
       </c>
@@ -20621,7 +20587,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="815" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>2532</v>
       </c>
@@ -20635,7 +20601,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="816" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>2535</v>
       </c>
@@ -20649,7 +20615,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="817" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>2538</v>
       </c>
@@ -20663,7 +20629,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="818" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>2541</v>
       </c>
@@ -20677,7 +20643,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="819" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>2544</v>
       </c>
@@ -20691,7 +20657,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="820" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>2547</v>
       </c>
@@ -20705,7 +20671,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="821" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>2532</v>
       </c>
@@ -20719,7 +20685,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="822" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>2535</v>
       </c>
@@ -20733,7 +20699,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="823" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>2538</v>
       </c>
@@ -20747,7 +20713,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="824" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>2541</v>
       </c>
@@ -20761,7 +20727,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="825" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>2554</v>
       </c>
@@ -20781,7 +20747,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="826" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>2558</v>
       </c>
@@ -20795,7 +20761,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="827" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>2561</v>
       </c>
@@ -20809,7 +20775,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="828" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>2564</v>
       </c>
@@ -20826,7 +20792,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="829" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>2568</v>
       </c>
@@ -20840,7 +20806,7 @@
         <v>2570</v>
       </c>
     </row>
-    <row r="830" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>2571</v>
       </c>
@@ -20854,7 +20820,7 @@
         <v>2573</v>
       </c>
     </row>
-    <row r="831" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>2574</v>
       </c>
@@ -20868,7 +20834,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="832" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>2577</v>
       </c>
@@ -20885,7 +20851,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="833" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>2581</v>
       </c>
@@ -20899,7 +20865,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="834" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>2584</v>
       </c>
@@ -20913,7 +20879,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="835" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>2587</v>
       </c>
@@ -20927,7 +20893,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="836" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>2590</v>
       </c>
@@ -20944,7 +20910,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="837" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>2594</v>
       </c>
@@ -20958,7 +20924,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="838" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>2597</v>
       </c>
@@ -20972,7 +20938,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="839" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>2600</v>
       </c>
@@ -20986,7 +20952,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="840" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>2603</v>
       </c>
@@ -21000,7 +20966,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="841" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>2606</v>
       </c>
@@ -21014,7 +20980,7 @@
         <v>2608</v>
       </c>
     </row>
-    <row r="842" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>2609</v>
       </c>
@@ -21031,7 +20997,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="843" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>2613</v>
       </c>
@@ -21048,7 +21014,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="844" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>2617</v>
       </c>
@@ -21062,7 +21028,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="845" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>2620</v>
       </c>
@@ -21079,7 +21045,7 @@
         <v>2623</v>
       </c>
     </row>
-    <row r="846" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>2624</v>
       </c>
@@ -21093,7 +21059,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="847" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>2627</v>
       </c>
@@ -21107,7 +21073,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="848" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>2630</v>
       </c>
@@ -21121,7 +21087,7 @@
         <v>2632</v>
       </c>
     </row>
-    <row r="849" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>2633</v>
       </c>
@@ -21135,7 +21101,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="850" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>2636</v>
       </c>
@@ -21149,7 +21115,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="851" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>2639</v>
       </c>
@@ -21163,7 +21129,7 @@
         <v>2641</v>
       </c>
     </row>
-    <row r="852" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>2642</v>
       </c>
@@ -21177,7 +21143,7 @@
         <v>2644</v>
       </c>
     </row>
-    <row r="853" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>2645</v>
       </c>
@@ -21194,7 +21160,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="854" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>2649</v>
       </c>
@@ -21208,7 +21174,7 @@
         <v>2651</v>
       </c>
     </row>
-    <row r="855" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>2652</v>
       </c>
@@ -21222,7 +21188,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="856" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>2655</v>
       </c>
@@ -21236,7 +21202,7 @@
         <v>2657</v>
       </c>
     </row>
-    <row r="857" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>2658</v>
       </c>
@@ -21250,7 +21216,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="858" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>2661</v>
       </c>
@@ -21264,7 +21230,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="859" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>2664</v>
       </c>
@@ -21278,7 +21244,7 @@
         <v>2666</v>
       </c>
     </row>
-    <row r="860" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>2667</v>
       </c>
@@ -21292,7 +21258,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="861" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>2670</v>
       </c>
@@ -21306,7 +21272,7 @@
         <v>2672</v>
       </c>
     </row>
-    <row r="862" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>2673</v>
       </c>
@@ -21320,7 +21286,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="863" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>2676</v>
       </c>
@@ -21337,7 +21303,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="864" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>2680</v>
       </c>
@@ -21351,7 +21317,7 @@
         <v>2682</v>
       </c>
     </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>2683</v>
       </c>
@@ -21365,7 +21331,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>2686</v>
       </c>
@@ -21379,7 +21345,7 @@
         <v>2688</v>
       </c>
     </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>2689</v>
       </c>
@@ -21393,7 +21359,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>2692</v>
       </c>
@@ -21407,7 +21373,7 @@
         <v>2694</v>
       </c>
     </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>2695</v>
       </c>
@@ -21424,7 +21390,7 @@
         <v>2697</v>
       </c>
     </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>2698</v>
       </c>
@@ -21438,7 +21404,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>2701</v>
       </c>
@@ -21452,7 +21418,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>2704</v>
       </c>
@@ -21466,7 +21432,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>2707</v>
       </c>
@@ -21483,7 +21449,7 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>2711</v>
       </c>
@@ -21497,7 +21463,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>2714</v>
       </c>
@@ -21511,7 +21477,7 @@
         <v>2716</v>
       </c>
     </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>2717</v>
       </c>
@@ -21525,7 +21491,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>2720</v>
       </c>
@@ -21539,7 +21505,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>2723</v>
       </c>
@@ -21553,7 +21519,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>2726</v>
       </c>
@@ -21567,7 +21533,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>2729</v>
       </c>
@@ -21581,7 +21547,7 @@
         <v>2731</v>
       </c>
     </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>2732</v>
       </c>
@@ -21595,7 +21561,7 @@
         <v>2734</v>
       </c>
     </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>2735</v>
       </c>
@@ -21612,7 +21578,7 @@
         <v>2738</v>
       </c>
     </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>2739</v>
       </c>
@@ -21626,7 +21592,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>2742</v>
       </c>
@@ -21643,7 +21609,7 @@
         <v>2744</v>
       </c>
     </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>2745</v>
       </c>
@@ -21657,7 +21623,7 @@
         <v>2747</v>
       </c>
     </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>2748</v>
       </c>
@@ -21671,7 +21637,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>2751</v>
       </c>
@@ -21685,7 +21651,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>2754</v>
       </c>
@@ -21699,7 +21665,7 @@
         <v>2756</v>
       </c>
     </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>2757</v>
       </c>
@@ -21713,7 +21679,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>2760</v>
       </c>
@@ -21727,7 +21693,7 @@
         <v>2762</v>
       </c>
     </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>2763</v>
       </c>
@@ -21741,7 +21707,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>2766</v>
       </c>
@@ -21758,7 +21724,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>2770</v>
       </c>
@@ -21772,7 +21738,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>2773</v>
       </c>
@@ -21786,7 +21752,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>2776</v>
       </c>
@@ -21800,7 +21766,7 @@
         <v>2778</v>
       </c>
     </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>2779</v>
       </c>
@@ -21814,7 +21780,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>2782</v>
       </c>
@@ -21828,7 +21794,7 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>2785</v>
       </c>
